--- a/mid/songs.xlsx
+++ b/mid/songs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\shunl\Documents\Code\前端工程設計\mid\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B7E017D-A914-4DC6-873E-C8B46AFA6355}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C9506CD-7D80-4CFA-9D51-6E3E8E5BD352}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38505" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{AA86F55C-27DA-4C20-A6E5-5E0A3B4EF518}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{AA86F55C-27DA-4C20-A6E5-5E0A3B4EF518}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="239">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -65,304 +65,6 @@
     <t>Speaking</t>
   </si>
   <si>
-    <t>1.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2.jpg</t>
-  </si>
-  <si>
-    <t>3.jpg</t>
-  </si>
-  <si>
-    <t>5.jpg</t>
-  </si>
-  <si>
-    <t>6.jpg</t>
-  </si>
-  <si>
-    <t>7.jpg</t>
-  </si>
-  <si>
-    <t>8.jpg</t>
-  </si>
-  <si>
-    <t>9.jpg</t>
-  </si>
-  <si>
-    <t>10.jpg</t>
-  </si>
-  <si>
-    <t>11.jpg</t>
-  </si>
-  <si>
-    <t>12.jpg</t>
-  </si>
-  <si>
-    <t>13.jpg</t>
-  </si>
-  <si>
-    <t>14.jpg</t>
-  </si>
-  <si>
-    <t>15.jpg</t>
-  </si>
-  <si>
-    <t>16.jpg</t>
-  </si>
-  <si>
-    <t>17.jpg</t>
-  </si>
-  <si>
-    <t>18.jpg</t>
-  </si>
-  <si>
-    <t>19.jpg</t>
-  </si>
-  <si>
-    <t>20.jpg</t>
-  </si>
-  <si>
-    <t>21.jpg</t>
-  </si>
-  <si>
-    <t>22.jpg</t>
-  </si>
-  <si>
-    <t>23.jpg</t>
-  </si>
-  <si>
-    <t>24.jpg</t>
-  </si>
-  <si>
-    <t>25.jpg</t>
-  </si>
-  <si>
-    <t>26.jpg</t>
-  </si>
-  <si>
-    <t>27.jpg</t>
-  </si>
-  <si>
-    <t>28.jpg</t>
-  </si>
-  <si>
-    <t>29.jpg</t>
-  </si>
-  <si>
-    <t>30.jpg</t>
-  </si>
-  <si>
-    <t>31.jpg</t>
-  </si>
-  <si>
-    <t>32.jpg</t>
-  </si>
-  <si>
-    <t>33.jpg</t>
-  </si>
-  <si>
-    <t>34.jpg</t>
-  </si>
-  <si>
-    <t>35.jpg</t>
-  </si>
-  <si>
-    <t>36.jpg</t>
-  </si>
-  <si>
-    <t>37.jpg</t>
-  </si>
-  <si>
-    <t>38.jpg</t>
-  </si>
-  <si>
-    <t>39.jpg</t>
-  </si>
-  <si>
-    <t>40.jpg</t>
-  </si>
-  <si>
-    <t>41.jpg</t>
-  </si>
-  <si>
-    <t>42.jpg</t>
-  </si>
-  <si>
-    <t>43.jpg</t>
-  </si>
-  <si>
-    <t>44.jpg</t>
-  </si>
-  <si>
-    <t>45.jpg</t>
-  </si>
-  <si>
-    <t>46.jpg</t>
-  </si>
-  <si>
-    <t>47.jpg</t>
-  </si>
-  <si>
-    <t>48.jpg</t>
-  </si>
-  <si>
-    <t>49.jpg</t>
-  </si>
-  <si>
-    <t>50.jpg</t>
-  </si>
-  <si>
-    <t>51.jpg</t>
-  </si>
-  <si>
-    <t>52.jpg</t>
-  </si>
-  <si>
-    <t>53.jpg</t>
-  </si>
-  <si>
-    <t>54.jpg</t>
-  </si>
-  <si>
-    <t>55.jpg</t>
-  </si>
-  <si>
-    <t>56.jpg</t>
-  </si>
-  <si>
-    <t>57.jpg</t>
-  </si>
-  <si>
-    <t>58.jpg</t>
-  </si>
-  <si>
-    <t>59.jpg</t>
-  </si>
-  <si>
-    <t>60.jpg</t>
-  </si>
-  <si>
-    <t>61.jpg</t>
-  </si>
-  <si>
-    <t>62.jpg</t>
-  </si>
-  <si>
-    <t>63.jpg</t>
-  </si>
-  <si>
-    <t>64.jpg</t>
-  </si>
-  <si>
-    <t>65.jpg</t>
-  </si>
-  <si>
-    <t>66.jpg</t>
-  </si>
-  <si>
-    <t>67.jpg</t>
-  </si>
-  <si>
-    <t>68.jpg</t>
-  </si>
-  <si>
-    <t>69.jpg</t>
-  </si>
-  <si>
-    <t>70.jpg</t>
-  </si>
-  <si>
-    <t>71.jpg</t>
-  </si>
-  <si>
-    <t>72.jpg</t>
-  </si>
-  <si>
-    <t>73.jpg</t>
-  </si>
-  <si>
-    <t>74.jpg</t>
-  </si>
-  <si>
-    <t>75.jpg</t>
-  </si>
-  <si>
-    <t>76.jpg</t>
-  </si>
-  <si>
-    <t>77.jpg</t>
-  </si>
-  <si>
-    <t>78.jpg</t>
-  </si>
-  <si>
-    <t>79.jpg</t>
-  </si>
-  <si>
-    <t>80.jpg</t>
-  </si>
-  <si>
-    <t>81.jpg</t>
-  </si>
-  <si>
-    <t>82.jpg</t>
-  </si>
-  <si>
-    <t>83.jpg</t>
-  </si>
-  <si>
-    <t>84.jpg</t>
-  </si>
-  <si>
-    <t>85.jpg</t>
-  </si>
-  <si>
-    <t>86.jpg</t>
-  </si>
-  <si>
-    <t>87.jpg</t>
-  </si>
-  <si>
-    <t>88.jpg</t>
-  </si>
-  <si>
-    <t>89.jpg</t>
-  </si>
-  <si>
-    <t>90.jpg</t>
-  </si>
-  <si>
-    <t>91.jpg</t>
-  </si>
-  <si>
-    <t>92.jpg</t>
-  </si>
-  <si>
-    <t>93.jpg</t>
-  </si>
-  <si>
-    <t>94.jpg</t>
-  </si>
-  <si>
-    <t>95.jpg</t>
-  </si>
-  <si>
-    <t>96.jpg</t>
-  </si>
-  <si>
-    <t>97.jpg</t>
-  </si>
-  <si>
-    <t>98.jpg</t>
-  </si>
-  <si>
-    <t>99.jpg</t>
-  </si>
-  <si>
-    <t>100.jpg</t>
-  </si>
-  <si>
     <t>Mrs.GREEN APPLE</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,10 +85,6 @@
   </si>
   <si>
     <t>ANTENNA</t>
-  </si>
-  <si>
-    <t>4.jpg</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Soranji</t>
@@ -591,15 +289,530 @@
   <si>
     <t>LOSER/ナンバーナイン</t>
   </si>
+  <si>
+    <t>./images/1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>./images/2.jpg</t>
+  </si>
+  <si>
+    <t>./images/3.jpg</t>
+  </si>
+  <si>
+    <t>./images/4.jpg</t>
+  </si>
+  <si>
+    <t>./images/5.jpg</t>
+  </si>
+  <si>
+    <t>./images/6.jpg</t>
+  </si>
+  <si>
+    <t>./images/7.jpg</t>
+  </si>
+  <si>
+    <t>./images/8.jpg</t>
+  </si>
+  <si>
+    <t>./images/9.jpg</t>
+  </si>
+  <si>
+    <t>./images/10.jpg</t>
+  </si>
+  <si>
+    <t>./images/11.jpg</t>
+  </si>
+  <si>
+    <t>./images/12.jpg</t>
+  </si>
+  <si>
+    <t>./images/13.jpg</t>
+  </si>
+  <si>
+    <t>./images/14.jpg</t>
+  </si>
+  <si>
+    <t>./images/15.jpg</t>
+  </si>
+  <si>
+    <t>./images/16.jpg</t>
+  </si>
+  <si>
+    <t>./images/17.jpg</t>
+  </si>
+  <si>
+    <t>./images/18.jpg</t>
+  </si>
+  <si>
+    <t>./images/19.jpg</t>
+  </si>
+  <si>
+    <t>./images/20.jpg</t>
+  </si>
+  <si>
+    <t>./images/21.jpg</t>
+  </si>
+  <si>
+    <t>./images/22.jpg</t>
+  </si>
+  <si>
+    <t>./images/23.jpg</t>
+  </si>
+  <si>
+    <t>./images/24.jpg</t>
+  </si>
+  <si>
+    <t>./images/25.jpg</t>
+  </si>
+  <si>
+    <t>./images/26.jpg</t>
+  </si>
+  <si>
+    <t>./images/27.jpg</t>
+  </si>
+  <si>
+    <t>./images/28.jpg</t>
+  </si>
+  <si>
+    <t>./images/29.jpg</t>
+  </si>
+  <si>
+    <t>./images/30.jpg</t>
+  </si>
+  <si>
+    <t>./images/31.jpg</t>
+  </si>
+  <si>
+    <t>./images/32.jpg</t>
+  </si>
+  <si>
+    <t>./images/33.jpg</t>
+  </si>
+  <si>
+    <t>./images/34.jpg</t>
+  </si>
+  <si>
+    <t>./images/35.jpg</t>
+  </si>
+  <si>
+    <t>./images/36.jpg</t>
+  </si>
+  <si>
+    <t>./images/37.jpg</t>
+  </si>
+  <si>
+    <t>./images/38.jpg</t>
+  </si>
+  <si>
+    <t>./images/39.jpg</t>
+  </si>
+  <si>
+    <t>./images/40.jpg</t>
+  </si>
+  <si>
+    <t>./images/41.jpg</t>
+  </si>
+  <si>
+    <t>./images/42.jpg</t>
+  </si>
+  <si>
+    <t>./images/43.jpg</t>
+  </si>
+  <si>
+    <t>./images/44.jpg</t>
+  </si>
+  <si>
+    <t>./images/45.jpg</t>
+  </si>
+  <si>
+    <t>./images/46.jpg</t>
+  </si>
+  <si>
+    <t>./images/47.jpg</t>
+  </si>
+  <si>
+    <t>./images/48.jpg</t>
+  </si>
+  <si>
+    <t>./images/49.jpg</t>
+  </si>
+  <si>
+    <t>./images/50.jpg</t>
+  </si>
+  <si>
+    <t>./images/51.jpg</t>
+  </si>
+  <si>
+    <t>./images/52.jpg</t>
+  </si>
+  <si>
+    <t>./images/53.jpg</t>
+  </si>
+  <si>
+    <t>./images/54.jpg</t>
+  </si>
+  <si>
+    <t>./images/55.jpg</t>
+  </si>
+  <si>
+    <t>./images/56.jpg</t>
+  </si>
+  <si>
+    <t>./images/57.jpg</t>
+  </si>
+  <si>
+    <t>./images/58.jpg</t>
+  </si>
+  <si>
+    <t>./images/59.jpg</t>
+  </si>
+  <si>
+    <t>./images/60.jpg</t>
+  </si>
+  <si>
+    <t>./images/61.jpg</t>
+  </si>
+  <si>
+    <t>./images/62.jpg</t>
+  </si>
+  <si>
+    <t>./images/63.jpg</t>
+  </si>
+  <si>
+    <t>./images/64.jpg</t>
+  </si>
+  <si>
+    <t>./images/65.jpg</t>
+  </si>
+  <si>
+    <t>./images/66.jpg</t>
+  </si>
+  <si>
+    <t>./images/67.jpg</t>
+  </si>
+  <si>
+    <t>./images/68.jpg</t>
+  </si>
+  <si>
+    <t>./images/69.jpg</t>
+  </si>
+  <si>
+    <t>./images/70.jpg</t>
+  </si>
+  <si>
+    <t>./images/71.jpg</t>
+  </si>
+  <si>
+    <t>./images/72.jpg</t>
+  </si>
+  <si>
+    <t>./images/73.jpg</t>
+  </si>
+  <si>
+    <t>./images/74.jpg</t>
+  </si>
+  <si>
+    <t>./images/75.jpg</t>
+  </si>
+  <si>
+    <t>./images/76.jpg</t>
+  </si>
+  <si>
+    <t>./images/77.jpg</t>
+  </si>
+  <si>
+    <t>./images/78.jpg</t>
+  </si>
+  <si>
+    <t>./images/79.jpg</t>
+  </si>
+  <si>
+    <t>./images/80.jpg</t>
+  </si>
+  <si>
+    <t>./images/81.jpg</t>
+  </si>
+  <si>
+    <t>./images/82.jpg</t>
+  </si>
+  <si>
+    <t>./images/83.jpg</t>
+  </si>
+  <si>
+    <t>./images/84.jpg</t>
+  </si>
+  <si>
+    <t>./images/85.jpg</t>
+  </si>
+  <si>
+    <t>./images/86.jpg</t>
+  </si>
+  <si>
+    <t>./images/87.jpg</t>
+  </si>
+  <si>
+    <t>./images/88.jpg</t>
+  </si>
+  <si>
+    <t>./images/89.jpg</t>
+  </si>
+  <si>
+    <t>./images/90.jpg</t>
+  </si>
+  <si>
+    <t>./images/91.jpg</t>
+  </si>
+  <si>
+    <t>SPECIALZ</t>
+  </si>
+  <si>
+    <t>King Gnu</t>
+  </si>
+  <si>
+    <t>Stardom</t>
+  </si>
+  <si>
+    <t>雨燦々</t>
+  </si>
+  <si>
+    <t>カメレオン</t>
+  </si>
+  <si>
+    <t>一途/逆夢</t>
+  </si>
+  <si>
+    <t>一途</t>
+  </si>
+  <si>
+    <t>逆夢</t>
+  </si>
+  <si>
+    <t>Prayer X</t>
+  </si>
+  <si>
+    <t>Teenager Forever</t>
+  </si>
+  <si>
+    <t>CEREMONY</t>
+  </si>
+  <si>
+    <t>白日</t>
+  </si>
+  <si>
+    <t>Cantabile</t>
+  </si>
+  <si>
+    <t>Novelbright</t>
+  </si>
+  <si>
+    <t>CIRCUS</t>
+  </si>
+  <si>
+    <t>雪の音</t>
+  </si>
+  <si>
+    <t>愛とか恋とか</t>
+  </si>
+  <si>
+    <t>Assort</t>
+  </si>
+  <si>
+    <t>開幕宣言</t>
+  </si>
+  <si>
+    <t>Sunny drop</t>
+  </si>
+  <si>
+    <t>ツキミソウ</t>
+  </si>
+  <si>
+    <t>開幕宣言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>夢花火</t>
+  </si>
+  <si>
+    <t>WONDERLAND</t>
+  </si>
+  <si>
+    <t>Chessboard/日常</t>
+  </si>
+  <si>
+    <t>Chessboard</t>
+  </si>
+  <si>
+    <t>Official髭男dism</t>
+  </si>
+  <si>
+    <t>ミックスナッツ EP</t>
+  </si>
+  <si>
+    <t>ミックスナッツ</t>
+  </si>
+  <si>
+    <t>I LOVE...</t>
+  </si>
+  <si>
+    <t>宿命</t>
+  </si>
+  <si>
+    <t>Pretender</t>
+  </si>
+  <si>
+    <t>Sharon</t>
+  </si>
+  <si>
+    <t>Rejoice</t>
+  </si>
+  <si>
+    <t>SOULSOUP</t>
+  </si>
+  <si>
+    <t>Cry Baby</t>
+  </si>
+  <si>
+    <t>Editorial</t>
+  </si>
+  <si>
+    <t>Laughter</t>
+  </si>
+  <si>
+    <t>イエスタデイ</t>
+  </si>
+  <si>
+    <t>Traveler</t>
+  </si>
+  <si>
+    <t>裸の勇者</t>
+  </si>
+  <si>
+    <t>Vaundy</t>
+  </si>
+  <si>
+    <t>灯火</t>
+  </si>
+  <si>
+    <t>怪獣の花唄</t>
+  </si>
+  <si>
+    <t>東京フラッシュ</t>
+  </si>
+  <si>
+    <t>不可幸力</t>
+  </si>
+  <si>
+    <t>僕は今日も</t>
+  </si>
+  <si>
+    <t>世界の秘密</t>
+  </si>
+  <si>
+    <t>そんなbitterな話</t>
+  </si>
+  <si>
+    <t>strobo</t>
+  </si>
+  <si>
+    <t>replica</t>
+  </si>
+  <si>
+    <t>replica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花占い</t>
+  </si>
+  <si>
+    <t>CHAINSAW BLOOD</t>
+  </si>
+  <si>
+    <t>踊</t>
+  </si>
+  <si>
+    <t>ギラギラ</t>
+  </si>
+  <si>
+    <t>うっせぇわ</t>
+  </si>
+  <si>
+    <t>Ado</t>
+  </si>
+  <si>
+    <t>Ado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂言</t>
+  </si>
+  <si>
+    <t>ウタの歌 ONE PIECE FILM RED</t>
+  </si>
+  <si>
+    <t>新時代</t>
+  </si>
+  <si>
+    <t>私は最強</t>
+  </si>
+  <si>
+    <t>逆光</t>
+  </si>
+  <si>
+    <t>Tot Musica</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向日葵</t>
+  </si>
+  <si>
+    <t>永遠のあくる日</t>
+  </si>
+  <si>
+    <t>唱</t>
+  </si>
+  <si>
+    <t>残夢</t>
+  </si>
+  <si>
+    <t>何なんw</t>
+  </si>
+  <si>
+    <t>優しさ</t>
+  </si>
+  <si>
+    <t>死ぬのがいいわ</t>
+  </si>
+  <si>
+    <t>帰ろう</t>
+  </si>
+  <si>
+    <t>藤井風</t>
+  </si>
+  <si>
+    <t>HELP EVER HURT NEVER</t>
+  </si>
+  <si>
+    <t>きらり</t>
+  </si>
+  <si>
+    <t>燃えよ</t>
+  </si>
+  <si>
+    <t>旅路</t>
+  </si>
+  <si>
+    <t>LOVE ALL SERVE ALL</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="181" formatCode="yyyy\-mm\-dd;@"/>
+    <numFmt numFmtId="176" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -614,28 +827,6 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color rgb="FF222222"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF555555"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="5"/>
-      <color rgb="FF222222"/>
-      <name val="Meiryo"/>
-      <family val="2"/>
-      <charset val="128"/>
     </font>
     <font>
       <sz val="12"/>
@@ -667,27 +858,12 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="181" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1023,10 +1199,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{399A67BA-902C-4E89-BF39-967F12E1F5F7}">
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+    <sheetView tabSelected="1" topLeftCell="A90" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.149999999999999" x14ac:dyDescent="0.45"/>
@@ -1035,6 +1211,8 @@
     <col min="3" max="3" width="22.796875" customWidth="1"/>
     <col min="4" max="4" width="29.06640625" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="21.33203125" customWidth="1"/>
+    <col min="7" max="7" width="58.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.45">
@@ -1065,16 +1243,16 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>128</v>
-      </c>
-      <c r="E2" s="5">
+        <v>28</v>
+      </c>
+      <c r="E2" s="1">
         <v>42354</v>
       </c>
       <c r="F2" t="s">
-        <v>7</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
@@ -1082,19 +1260,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>107</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E3" s="5">
+        <v>29</v>
+      </c>
+      <c r="E3" s="1">
         <v>42977</v>
       </c>
       <c r="F3" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.45">
@@ -1102,19 +1280,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>108</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
-      </c>
-      <c r="E4" s="5">
+        <v>30</v>
+      </c>
+      <c r="E4" s="1">
         <v>43145</v>
       </c>
       <c r="F4" t="s">
-        <v>9</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
@@ -1122,19 +1300,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>109</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>131</v>
-      </c>
-      <c r="E5" s="5">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1">
         <v>43313</v>
       </c>
       <c r="F5" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
@@ -1142,19 +1320,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>131</v>
-      </c>
-      <c r="E6" s="5">
+        <v>31</v>
+      </c>
+      <c r="E6" s="1">
         <v>43313</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -1162,19 +1340,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="5">
+        <v>32</v>
+      </c>
+      <c r="E7" s="1">
         <v>43474</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
@@ -1182,19 +1360,19 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>133</v>
-      </c>
-      <c r="E8" s="5">
+        <v>33</v>
+      </c>
+      <c r="E8" s="1">
         <v>45112</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>75</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -1202,19 +1380,19 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>114</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
-        <v>134</v>
-      </c>
-      <c r="E9" s="5">
+        <v>34</v>
+      </c>
+      <c r="E9" s="1">
         <v>44874</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
@@ -1222,19 +1400,19 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="D10" t="s">
-        <v>135</v>
-      </c>
-      <c r="E10" s="5">
+        <v>35</v>
+      </c>
+      <c r="E10" s="1">
         <v>44750</v>
       </c>
       <c r="F10" t="s">
-        <v>14</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -1242,19 +1420,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>116</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D11" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="5">
+        <v>36</v>
+      </c>
+      <c r="E11" s="1">
         <v>45350</v>
       </c>
       <c r="F11" t="s">
-        <v>15</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.45">
@@ -1262,19 +1440,19 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>118</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D12" t="s">
-        <v>137</v>
-      </c>
-      <c r="E12" s="5">
+        <v>37</v>
+      </c>
+      <c r="E12" s="1">
         <v>44624</v>
       </c>
       <c r="F12" t="s">
-        <v>16</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.45">
@@ -1282,19 +1460,19 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" s="5">
+        <v>38</v>
+      </c>
+      <c r="E13" s="1">
         <v>43796</v>
       </c>
       <c r="F13" t="s">
-        <v>17</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.45">
@@ -1302,19 +1480,19 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>120</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D14" t="s">
-        <v>138</v>
-      </c>
-      <c r="E14" s="5">
+        <v>38</v>
+      </c>
+      <c r="E14" s="1">
         <v>43796</v>
       </c>
       <c r="F14" t="s">
-        <v>18</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.45">
@@ -1322,19 +1500,19 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>121</v>
+        <v>21</v>
       </c>
       <c r="C15" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D15" t="s">
-        <v>139</v>
-      </c>
-      <c r="E15" s="5">
+        <v>39</v>
+      </c>
+      <c r="E15" s="1">
         <v>43796</v>
       </c>
       <c r="F15" t="s">
-        <v>19</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.45">
@@ -1342,19 +1520,19 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
-      </c>
-      <c r="E16" s="5">
+        <v>39</v>
+      </c>
+      <c r="E16" s="1">
         <v>43796</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>83</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.45">
@@ -1362,19 +1540,19 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>123</v>
+        <v>23</v>
       </c>
       <c r="C17" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>139</v>
-      </c>
-      <c r="E17" s="5">
+        <v>39</v>
+      </c>
+      <c r="E17" s="1">
         <v>43796</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>84</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.45">
@@ -1382,19 +1560,19 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>124</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
-      </c>
-      <c r="E18" s="5">
+        <v>40</v>
+      </c>
+      <c r="E18" s="1">
         <v>40611</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.45">
@@ -1402,19 +1580,19 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D19" t="s">
-        <v>141</v>
-      </c>
-      <c r="E19" s="5">
+        <v>41</v>
+      </c>
+      <c r="E19" s="1">
         <v>39057</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="19.899999999999999" x14ac:dyDescent="0.45">
@@ -1422,19 +1600,19 @@
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>164</v>
-      </c>
-      <c r="E20" s="5">
+        <v>64</v>
+      </c>
+      <c r="E20" s="1">
         <v>39057</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>87</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="19.899999999999999" x14ac:dyDescent="0.45">
@@ -1442,19 +1620,19 @@
         <v>20</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>27</v>
       </c>
       <c r="C21" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s">
-        <v>164</v>
-      </c>
-      <c r="E21" s="5">
+        <v>64</v>
+      </c>
+      <c r="E21" s="1">
         <v>39057</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.45">
@@ -1462,19 +1640,19 @@
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>44</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="5">
+        <v>42</v>
+      </c>
+      <c r="E22" s="1">
         <v>44223</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>89</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.45">
@@ -1482,19 +1660,19 @@
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D23" t="s">
-        <v>142</v>
-      </c>
-      <c r="E23" s="5">
+        <v>42</v>
+      </c>
+      <c r="E23" s="1">
         <v>44223</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.45">
@@ -1502,19 +1680,19 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>147</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D24" t="s">
-        <v>146</v>
-      </c>
-      <c r="E24" s="5">
+        <v>46</v>
+      </c>
+      <c r="E24" s="1">
         <v>44041</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>91</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.45">
@@ -1522,19 +1700,19 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>148</v>
+        <v>48</v>
       </c>
       <c r="C25" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D25" t="s">
-        <v>149</v>
-      </c>
-      <c r="E25" s="5">
+        <v>49</v>
+      </c>
+      <c r="E25" s="1">
         <v>43705</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.45">
@@ -1542,19 +1720,19 @@
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>150</v>
+        <v>50</v>
       </c>
       <c r="C26" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D26" t="s">
-        <v>151</v>
-      </c>
-      <c r="E26" s="5">
+        <v>51</v>
+      </c>
+      <c r="E26" s="1">
         <v>43565</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>93</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.45">
@@ -1562,19 +1740,19 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>151</v>
+        <v>51</v>
       </c>
       <c r="C27" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D27" t="s">
-        <v>151</v>
-      </c>
-      <c r="E27" s="5">
+        <v>51</v>
+      </c>
+      <c r="E27" s="1">
         <v>43565</v>
       </c>
       <c r="F27" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.45">
@@ -1582,19 +1760,19 @@
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>52</v>
       </c>
       <c r="C28" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D28" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="5">
+        <v>55</v>
+      </c>
+      <c r="E28" s="1">
         <v>42914</v>
       </c>
       <c r="F28" t="s">
-        <v>32</v>
+        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.45">
@@ -1602,19 +1780,19 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>153</v>
+        <v>53</v>
       </c>
       <c r="C29" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D29" t="s">
-        <v>155</v>
-      </c>
-      <c r="E29" s="5">
+        <v>55</v>
+      </c>
+      <c r="E29" s="1">
         <v>42914</v>
       </c>
       <c r="F29" t="s">
-        <v>33</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.45">
@@ -1622,713 +1800,1259 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>154</v>
+        <v>54</v>
       </c>
       <c r="C30" t="s">
-        <v>143</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>155</v>
-      </c>
-      <c r="E30" s="5">
+        <v>55</v>
+      </c>
+      <c r="E30" s="1">
         <v>42914</v>
       </c>
       <c r="F30" t="s">
-        <v>34</v>
+        <v>97</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>30</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="3">
+      <c r="B31" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" t="s">
+        <v>57</v>
+      </c>
+      <c r="D31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="1">
         <v>45133</v>
       </c>
       <c r="F31" t="s">
-        <v>35</v>
+        <v>98</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>31</v>
       </c>
-      <c r="B32" s="4" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E32" s="3">
+      <c r="B32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>57</v>
+      </c>
+      <c r="D32" t="s">
+        <v>58</v>
+      </c>
+      <c r="E32" s="1">
         <v>44888</v>
       </c>
       <c r="F32" t="s">
-        <v>36</v>
+        <v>99</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>32</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="E33" s="3">
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
+        <v>57</v>
+      </c>
+      <c r="D33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E33" s="1">
         <v>44752</v>
       </c>
       <c r="F33" t="s">
-        <v>37</v>
+        <v>100</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>33</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E34" s="3">
+      <c r="B34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>57</v>
+      </c>
+      <c r="D34" t="s">
+        <v>60</v>
+      </c>
+      <c r="E34" s="1">
         <v>44363</v>
       </c>
       <c r="F34" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>34</v>
       </c>
-      <c r="B35" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E35" s="3">
+      <c r="B35" t="s">
+        <v>61</v>
+      </c>
+      <c r="C35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D35" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1">
         <v>44363</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A36">
         <v>35</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E36" s="3">
+      <c r="B36" t="s">
+        <v>62</v>
+      </c>
+      <c r="C36" t="s">
+        <v>57</v>
+      </c>
+      <c r="D36" t="s">
+        <v>62</v>
+      </c>
+      <c r="E36" s="1">
         <v>43719</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>103</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A37">
         <v>36</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>163</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="E37" s="3">
+      <c r="B37" t="s">
+        <v>63</v>
+      </c>
+      <c r="C37" t="s">
+        <v>57</v>
+      </c>
+      <c r="D37" t="s">
+        <v>62</v>
+      </c>
+      <c r="E37" s="1">
         <v>43719</v>
       </c>
       <c r="F37" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>37</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E38" s="3">
+      <c r="B38" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" t="s">
+        <v>57</v>
+      </c>
+      <c r="D38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E38" s="1">
         <v>43173</v>
       </c>
       <c r="F38" t="s">
-        <v>42</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A39">
         <v>38</v>
       </c>
-      <c r="B39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="3">
+      <c r="B39" t="s">
+        <v>66</v>
+      </c>
+      <c r="C39" t="s">
+        <v>57</v>
+      </c>
+      <c r="D39" t="s">
+        <v>66</v>
+      </c>
+      <c r="E39" s="1">
         <v>42781</v>
       </c>
       <c r="F39" t="s">
-        <v>43</v>
+        <v>106</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A40">
         <v>39</v>
       </c>
-      <c r="B40" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D40" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E40" s="3">
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>57</v>
+      </c>
+      <c r="D40" t="s">
+        <v>68</v>
+      </c>
+      <c r="E40" s="1">
         <v>42641</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>40</v>
       </c>
-      <c r="E41" s="5"/>
+      <c r="B41" t="s">
+        <v>160</v>
+      </c>
+      <c r="C41" t="s">
+        <v>161</v>
+      </c>
+      <c r="D41" t="s">
+        <v>160</v>
+      </c>
+      <c r="E41" s="1">
+        <v>45175</v>
+      </c>
       <c r="F41" t="s">
-        <v>45</v>
+        <v>108</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="E42" s="5"/>
+      <c r="B42" t="s">
+        <v>163</v>
+      </c>
+      <c r="C42" t="s">
+        <v>161</v>
+      </c>
+      <c r="D42" t="s">
+        <v>162</v>
+      </c>
+      <c r="E42" s="1">
+        <v>44895</v>
+      </c>
       <c r="F42" t="s">
-        <v>46</v>
+        <v>109</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A43">
         <v>42</v>
       </c>
-      <c r="E43" s="5"/>
+      <c r="B43" t="s">
+        <v>164</v>
+      </c>
+      <c r="C43" t="s">
+        <v>161</v>
+      </c>
+      <c r="D43" t="s">
+        <v>164</v>
+      </c>
+      <c r="E43" s="1">
+        <v>44636</v>
+      </c>
       <c r="F43" t="s">
-        <v>47</v>
+        <v>110</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>43</v>
       </c>
-      <c r="E44" s="5"/>
+      <c r="B44" t="s">
+        <v>166</v>
+      </c>
+      <c r="C44" t="s">
+        <v>161</v>
+      </c>
+      <c r="D44" t="s">
+        <v>165</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44559</v>
+      </c>
       <c r="F44" t="s">
-        <v>48</v>
+        <v>111</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A45">
         <v>44</v>
       </c>
-      <c r="E45" s="5"/>
+      <c r="B45" t="s">
+        <v>167</v>
+      </c>
+      <c r="C45" t="s">
+        <v>161</v>
+      </c>
+      <c r="D45" t="s">
+        <v>165</v>
+      </c>
+      <c r="E45" s="1">
+        <v>44559</v>
+      </c>
       <c r="F45" t="s">
-        <v>49</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A46">
         <v>45</v>
       </c>
-      <c r="E46" s="5"/>
+      <c r="B46" t="s">
+        <v>168</v>
+      </c>
+      <c r="C46" t="s">
+        <v>161</v>
+      </c>
+      <c r="D46" t="s">
+        <v>168</v>
+      </c>
+      <c r="E46" s="1">
+        <v>43362</v>
+      </c>
       <c r="F46" t="s">
-        <v>50</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>46</v>
       </c>
+      <c r="B47" t="s">
+        <v>169</v>
+      </c>
+      <c r="C47" t="s">
+        <v>161</v>
+      </c>
+      <c r="D47" t="s">
+        <v>170</v>
+      </c>
+      <c r="E47" s="1">
+        <v>43845</v>
+      </c>
       <c r="F47" t="s">
-        <v>51</v>
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A48">
         <v>47</v>
       </c>
+      <c r="B48" t="s">
+        <v>171</v>
+      </c>
+      <c r="C48" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" t="s">
+        <v>170</v>
+      </c>
+      <c r="E48" s="1">
+        <v>43845</v>
+      </c>
       <c r="F48" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>48</v>
       </c>
+      <c r="B49" t="s">
+        <v>172</v>
+      </c>
+      <c r="C49" t="s">
+        <v>173</v>
+      </c>
+      <c r="D49" t="s">
+        <v>174</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45385</v>
+      </c>
       <c r="F49" t="s">
-        <v>53</v>
+        <v>116</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A50">
         <v>49</v>
       </c>
+      <c r="B50" t="s">
+        <v>175</v>
+      </c>
+      <c r="C50" t="s">
+        <v>173</v>
+      </c>
+      <c r="D50" t="s">
+        <v>174</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45385</v>
+      </c>
       <c r="F50" t="s">
-        <v>54</v>
+        <v>117</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A51">
         <v>50</v>
       </c>
+      <c r="B51" t="s">
+        <v>176</v>
+      </c>
+      <c r="C51" t="s">
+        <v>173</v>
+      </c>
+      <c r="D51" t="s">
+        <v>177</v>
+      </c>
+      <c r="E51" s="1">
+        <v>44699</v>
+      </c>
       <c r="F51" t="s">
-        <v>55</v>
+        <v>118</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>51</v>
       </c>
+      <c r="B52" t="s">
+        <v>178</v>
+      </c>
+      <c r="C52" t="s">
+        <v>173</v>
+      </c>
+      <c r="D52" t="s">
+        <v>181</v>
+      </c>
+      <c r="E52" s="1">
+        <v>44314</v>
+      </c>
       <c r="F52" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A53">
         <v>52</v>
       </c>
+      <c r="B53" t="s">
+        <v>179</v>
+      </c>
+      <c r="C53" t="s">
+        <v>173</v>
+      </c>
+      <c r="D53" t="s">
+        <v>178</v>
+      </c>
+      <c r="E53" s="1">
+        <v>44314</v>
+      </c>
       <c r="F53" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A54">
         <v>53</v>
       </c>
+      <c r="B54" t="s">
+        <v>180</v>
+      </c>
+      <c r="C54" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" t="s">
+        <v>178</v>
+      </c>
+      <c r="E54" s="1">
+        <v>44314</v>
+      </c>
       <c r="F54" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>54</v>
       </c>
+      <c r="B55" t="s">
+        <v>182</v>
+      </c>
+      <c r="C55" t="s">
+        <v>173</v>
+      </c>
+      <c r="D55" t="s">
+        <v>183</v>
+      </c>
+      <c r="E55" s="1">
+        <v>43978</v>
+      </c>
       <c r="F55" t="s">
-        <v>59</v>
+        <v>122</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A56">
         <v>55</v>
       </c>
+      <c r="B56" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" t="s">
+        <v>184</v>
+      </c>
+      <c r="E56" s="1">
+        <v>45182</v>
+      </c>
       <c r="F56" t="s">
-        <v>60</v>
+        <v>123</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A57">
         <v>56</v>
       </c>
+      <c r="B57" t="s">
+        <v>188</v>
+      </c>
+      <c r="C57" t="s">
+        <v>186</v>
+      </c>
+      <c r="D57" t="s">
+        <v>187</v>
+      </c>
+      <c r="E57" s="1">
+        <v>44734</v>
+      </c>
       <c r="F57" t="s">
-        <v>61</v>
+        <v>124</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>57</v>
       </c>
+      <c r="B58" t="s">
+        <v>189</v>
+      </c>
+      <c r="C58" t="s">
+        <v>186</v>
+      </c>
+      <c r="D58" t="s">
+        <v>189</v>
+      </c>
+      <c r="E58" s="1">
+        <v>43873</v>
+      </c>
       <c r="F58" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A59">
         <v>58</v>
       </c>
+      <c r="B59" t="s">
+        <v>190</v>
+      </c>
+      <c r="C59" t="s">
+        <v>186</v>
+      </c>
+      <c r="D59" t="s">
+        <v>190</v>
+      </c>
+      <c r="E59" s="1">
+        <v>43677</v>
+      </c>
       <c r="F59" t="s">
-        <v>63</v>
+        <v>126</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A60">
         <v>59</v>
       </c>
+      <c r="B60" t="s">
+        <v>191</v>
+      </c>
+      <c r="C60" t="s">
+        <v>186</v>
+      </c>
+      <c r="D60" t="s">
+        <v>191</v>
+      </c>
+      <c r="E60" s="1">
+        <v>43600</v>
+      </c>
       <c r="F60" t="s">
-        <v>64</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>60</v>
       </c>
+      <c r="B61" t="s">
+        <v>192</v>
+      </c>
+      <c r="C61" t="s">
+        <v>186</v>
+      </c>
+      <c r="D61" t="s">
+        <v>193</v>
+      </c>
+      <c r="E61" s="1">
+        <v>45504</v>
+      </c>
       <c r="F61" t="s">
-        <v>65</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A62">
         <v>61</v>
       </c>
+      <c r="B62" t="s">
+        <v>194</v>
+      </c>
+      <c r="C62" t="s">
+        <v>186</v>
+      </c>
+      <c r="D62" t="s">
+        <v>193</v>
+      </c>
+      <c r="E62" s="1">
+        <v>45504</v>
+      </c>
       <c r="F62" t="s">
-        <v>66</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A63">
         <v>62</v>
       </c>
+      <c r="B63" t="s">
+        <v>195</v>
+      </c>
+      <c r="C63" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" t="s">
+        <v>196</v>
+      </c>
+      <c r="E63" s="1">
+        <v>44426</v>
+      </c>
       <c r="F63" t="s">
-        <v>67</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>63</v>
       </c>
+      <c r="B64" t="s">
+        <v>197</v>
+      </c>
+      <c r="C64" t="s">
+        <v>186</v>
+      </c>
+      <c r="D64" t="s">
+        <v>196</v>
+      </c>
+      <c r="E64" s="1">
+        <v>44426</v>
+      </c>
       <c r="F64" t="s">
-        <v>68</v>
+        <v>131</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A65">
         <v>64</v>
       </c>
+      <c r="B65" t="s">
+        <v>198</v>
+      </c>
+      <c r="C65" t="s">
+        <v>186</v>
+      </c>
+      <c r="D65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E65" s="1">
+        <v>43747</v>
+      </c>
       <c r="F65" t="s">
-        <v>69</v>
+        <v>132</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A66">
         <v>65</v>
       </c>
+      <c r="B66" t="s">
+        <v>200</v>
+      </c>
+      <c r="C66" t="s">
+        <v>201</v>
+      </c>
+      <c r="D66" t="s">
+        <v>200</v>
+      </c>
+      <c r="E66" s="1">
+        <v>44615</v>
+      </c>
       <c r="F66" t="s">
-        <v>70</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>66</v>
       </c>
+      <c r="B67" t="s">
+        <v>202</v>
+      </c>
+      <c r="C67" t="s">
+        <v>201</v>
+      </c>
+      <c r="D67" t="s">
+        <v>209</v>
+      </c>
+      <c r="E67" s="1">
+        <v>43978</v>
+      </c>
       <c r="F67" t="s">
-        <v>71</v>
+        <v>134</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A68">
         <v>67</v>
       </c>
+      <c r="B68" t="s">
+        <v>203</v>
+      </c>
+      <c r="C68" t="s">
+        <v>201</v>
+      </c>
+      <c r="D68" t="s">
+        <v>209</v>
+      </c>
+      <c r="E68" s="1">
+        <v>43978</v>
+      </c>
       <c r="F68" t="s">
-        <v>72</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A69">
         <v>68</v>
       </c>
+      <c r="B69" t="s">
+        <v>204</v>
+      </c>
+      <c r="C69" t="s">
+        <v>201</v>
+      </c>
+      <c r="D69" t="s">
+        <v>209</v>
+      </c>
+      <c r="E69" s="1">
+        <v>43978</v>
+      </c>
       <c r="F69" t="s">
-        <v>73</v>
+        <v>136</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A70">
         <v>69</v>
       </c>
+      <c r="B70" t="s">
+        <v>205</v>
+      </c>
+      <c r="C70" t="s">
+        <v>201</v>
+      </c>
+      <c r="D70" t="s">
+        <v>209</v>
+      </c>
+      <c r="E70" s="1">
+        <v>43978</v>
+      </c>
       <c r="F70" t="s">
-        <v>74</v>
+        <v>137</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A71">
         <v>70</v>
       </c>
+      <c r="B71" t="s">
+        <v>206</v>
+      </c>
+      <c r="C71" t="s">
+        <v>201</v>
+      </c>
+      <c r="D71" t="s">
+        <v>209</v>
+      </c>
+      <c r="E71" s="1">
+        <v>43978</v>
+      </c>
       <c r="F71" t="s">
-        <v>75</v>
+        <v>138</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A72">
         <v>71</v>
       </c>
+      <c r="B72" t="s">
+        <v>207</v>
+      </c>
+      <c r="C72" t="s">
+        <v>201</v>
+      </c>
+      <c r="D72" t="s">
+        <v>211</v>
+      </c>
+      <c r="E72" s="1">
+        <v>45245</v>
+      </c>
       <c r="F72" t="s">
-        <v>76</v>
+        <v>139</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A73">
         <v>72</v>
       </c>
+      <c r="B73" t="s">
+        <v>208</v>
+      </c>
+      <c r="C73" t="s">
+        <v>201</v>
+      </c>
+      <c r="D73" t="s">
+        <v>210</v>
+      </c>
+      <c r="E73" s="1">
+        <v>45245</v>
+      </c>
       <c r="F73" t="s">
-        <v>77</v>
+        <v>140</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A74">
         <v>73</v>
       </c>
+      <c r="B74" t="s">
+        <v>212</v>
+      </c>
+      <c r="C74" t="s">
+        <v>201</v>
+      </c>
+      <c r="D74" t="s">
+        <v>211</v>
+      </c>
+      <c r="E74" s="1">
+        <v>45245</v>
+      </c>
       <c r="F74" t="s">
-        <v>78</v>
+        <v>141</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A75">
         <v>74</v>
       </c>
+      <c r="B75" t="s">
+        <v>213</v>
+      </c>
+      <c r="C75" t="s">
+        <v>201</v>
+      </c>
+      <c r="D75" t="s">
+        <v>210</v>
+      </c>
+      <c r="E75" s="1">
+        <v>45245</v>
+      </c>
       <c r="F75" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A76">
         <v>75</v>
       </c>
+      <c r="B76" t="s">
+        <v>214</v>
+      </c>
+      <c r="C76" t="s">
+        <v>218</v>
+      </c>
+      <c r="D76" t="s">
+        <v>219</v>
+      </c>
+      <c r="E76" s="1">
+        <v>44587</v>
+      </c>
       <c r="F76" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A77">
         <v>76</v>
       </c>
+      <c r="B77" t="s">
+        <v>215</v>
+      </c>
+      <c r="C77" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" t="s">
+        <v>219</v>
+      </c>
+      <c r="E77" s="1">
+        <v>44587</v>
+      </c>
       <c r="F77" t="s">
-        <v>81</v>
+        <v>144</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A78">
         <v>77</v>
       </c>
+      <c r="B78" t="s">
+        <v>216</v>
+      </c>
+      <c r="C78" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" t="s">
+        <v>219</v>
+      </c>
+      <c r="E78" s="1">
+        <v>44587</v>
+      </c>
       <c r="F78" t="s">
-        <v>82</v>
+        <v>145</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A79">
         <v>78</v>
       </c>
+      <c r="B79" t="s">
+        <v>221</v>
+      </c>
+      <c r="C79" t="s">
+        <v>217</v>
+      </c>
+      <c r="D79" t="s">
+        <v>220</v>
+      </c>
+      <c r="E79" s="1">
+        <v>45091</v>
+      </c>
       <c r="F79" t="s">
-        <v>83</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A80">
         <v>79</v>
       </c>
+      <c r="B80" t="s">
+        <v>222</v>
+      </c>
+      <c r="C80" t="s">
+        <v>217</v>
+      </c>
+      <c r="D80" t="s">
+        <v>220</v>
+      </c>
+      <c r="E80" s="1">
+        <v>45091</v>
+      </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81">
         <v>80</v>
       </c>
+      <c r="B81" t="s">
+        <v>223</v>
+      </c>
+      <c r="C81" t="s">
+        <v>217</v>
+      </c>
+      <c r="D81" t="s">
+        <v>220</v>
+      </c>
+      <c r="E81" s="1">
+        <v>45091</v>
+      </c>
       <c r="F81" t="s">
-        <v>85</v>
+        <v>148</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82">
         <v>81</v>
       </c>
+      <c r="B82" t="s">
+        <v>224</v>
+      </c>
+      <c r="C82" t="s">
+        <v>217</v>
+      </c>
+      <c r="D82" t="s">
+        <v>220</v>
+      </c>
+      <c r="E82" s="1">
+        <v>45091</v>
+      </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>149</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A83">
         <v>82</v>
       </c>
+      <c r="B83" t="s">
+        <v>225</v>
+      </c>
+      <c r="C83" t="s">
+        <v>217</v>
+      </c>
+      <c r="D83" t="s">
+        <v>228</v>
+      </c>
+      <c r="E83" s="1">
+        <v>45483</v>
+      </c>
       <c r="F83" t="s">
-        <v>87</v>
+        <v>150</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84">
         <v>83</v>
       </c>
+      <c r="B84" t="s">
+        <v>226</v>
+      </c>
+      <c r="C84" t="s">
+        <v>217</v>
+      </c>
+      <c r="D84" t="s">
+        <v>228</v>
+      </c>
+      <c r="E84" s="1">
+        <v>45484</v>
+      </c>
       <c r="F84" t="s">
-        <v>88</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85">
         <v>84</v>
       </c>
+      <c r="B85" t="s">
+        <v>227</v>
+      </c>
+      <c r="C85" t="s">
+        <v>217</v>
+      </c>
+      <c r="D85" t="s">
+        <v>228</v>
+      </c>
+      <c r="E85" s="1">
+        <v>45485</v>
+      </c>
       <c r="F85" t="s">
-        <v>89</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86">
         <v>85</v>
       </c>
+      <c r="B86" t="s">
+        <v>229</v>
+      </c>
+      <c r="C86" t="s">
+        <v>233</v>
+      </c>
+      <c r="D86" t="s">
+        <v>234</v>
+      </c>
+      <c r="E86" s="1">
+        <v>43971</v>
+      </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87">
         <v>86</v>
       </c>
+      <c r="B87" t="s">
+        <v>230</v>
+      </c>
+      <c r="C87" t="s">
+        <v>233</v>
+      </c>
+      <c r="D87" t="s">
+        <v>234</v>
+      </c>
+      <c r="E87" s="1">
+        <v>43971</v>
+      </c>
       <c r="F87" t="s">
-        <v>91</v>
+        <v>154</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88">
         <v>87</v>
       </c>
+      <c r="B88" t="s">
+        <v>231</v>
+      </c>
+      <c r="C88" t="s">
+        <v>233</v>
+      </c>
+      <c r="D88" t="s">
+        <v>234</v>
+      </c>
+      <c r="E88" s="1">
+        <v>43971</v>
+      </c>
       <c r="F88" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89">
         <v>88</v>
       </c>
+      <c r="B89" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" t="s">
+        <v>233</v>
+      </c>
+      <c r="D89" t="s">
+        <v>234</v>
+      </c>
+      <c r="E89" s="1">
+        <v>43971</v>
+      </c>
       <c r="F89" t="s">
-        <v>93</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90">
         <v>89</v>
       </c>
+      <c r="B90" t="s">
+        <v>235</v>
+      </c>
+      <c r="C90" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" t="s">
+        <v>238</v>
+      </c>
+      <c r="E90" s="1">
+        <v>44643</v>
+      </c>
       <c r="F90" t="s">
-        <v>94</v>
+        <v>157</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91">
         <v>90</v>
       </c>
+      <c r="B91" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" t="s">
+        <v>233</v>
+      </c>
+      <c r="D91" t="s">
+        <v>238</v>
+      </c>
+      <c r="E91" s="1">
+        <v>44643</v>
+      </c>
       <c r="F91" t="s">
-        <v>95</v>
+        <v>158</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92">
         <v>91</v>
       </c>
+      <c r="B92" t="s">
+        <v>237</v>
+      </c>
+      <c r="C92" t="s">
+        <v>233</v>
+      </c>
+      <c r="D92" t="s">
+        <v>238</v>
+      </c>
+      <c r="E92" s="1">
+        <v>44643</v>
+      </c>
       <c r="F92" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A93">
-        <v>92</v>
-      </c>
-      <c r="F93" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A94">
-        <v>93</v>
-      </c>
-      <c r="F94" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A95">
-        <v>94</v>
-      </c>
-      <c r="F95" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A96">
-        <v>95</v>
-      </c>
-      <c r="F96" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A97">
-        <v>96</v>
-      </c>
-      <c r="F97" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A98">
-        <v>97</v>
-      </c>
-      <c r="F98" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A99">
-        <v>98</v>
-      </c>
-      <c r="F99" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A100">
-        <v>99</v>
-      </c>
-      <c r="F100" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
-      <c r="A101">
-        <v>100</v>
-      </c>
-      <c r="F101" t="s">
-        <v>105</v>
+        <v>159</v>
       </c>
     </row>
   </sheetData>
